--- a/biology/Histoire de la zoologie et de la botanique/Frédéric_Albert_Constantin_Weber/Frédéric_Albert_Constantin_Weber.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frédéric_Albert_Constantin_Weber/Frédéric_Albert_Constantin_Weber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Albert_Constantin_Weber</t>
+          <t>Frédéric_Albert_Constantin_Weber</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frédéric Albert Constantin Weber, né le 17 mai 1830 à Wolfisheim (Bas-Rhin) et mort le 27 juillet 1903 (à 73 ans) dans le 6e arrondissement de Paris, est un médecin militaire et botaniste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Albert_Constantin_Weber</t>
+          <t>Frédéric_Albert_Constantin_Weber</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un pasteur protestant, il obtient son diplôme de docteur en médecine à la faculté de Strasbourg le 9 décembre 1852 en soutenant une thèse intitulée De l'hémorragie des méninges cérébrales.
 Admis dans l'armée en 1853, il y accomplit l'intégralité de sa carrière en qualité de médecin militaire. Employé en Algérie de 1856 à 1859, il participe à la Campagne d'Italie (1859) et sert en Chine de 1859 à 1861 puis en Cochinchine de 1861 à 1862. Employé dans les forces expéditionnaires de l'Intervention française au Mexique de 1864 à 1867, il sert au cours la Guerre franco-allemande de 1870 avant d'appartenir aux troupes versaillaises qui affrontent la Commune de Paris (1871).
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Albert_Constantin_Weber</t>
+          <t>Frédéric_Albert_Constantin_Weber</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Catrix, Jean-René, Frédéric Albert Constantin Weber: la médecine militaire &amp; la passion botanique, ou la double vie du « Dr W. », Au cactus Francophone 2020</t>
         </is>
